--- a/biology/Histoire de la zoologie et de la botanique/La_Filiation_de_l'homme_et_la_sélection_liée_au_sexe/La_Filiation_de_l'homme_et_la_sélection_liée_au_sexe.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/La_Filiation_de_l'homme_et_la_sélection_liée_au_sexe/La_Filiation_de_l'homme_et_la_sélection_liée_au_sexe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>La_Filiation_de_l%27homme_et_la_s%C3%A9lection_li%C3%A9e_au_sexe</t>
+          <t>La_Filiation_de_l'homme_et_la_sélection_liée_au_sexe</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Filiation de l'homme et la sélection liée au sexe (The Descent of Man, and Selection in Relation to Sex) est un livre du naturaliste britannique Charles Darwin, publié en 1871 et traitant de l'application de la théorie de l'évolution, notamment à l'espèce humaine. 
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>La_Filiation_de_l%27homme_et_la_s%C3%A9lection_li%C3%A9e_au_sexe</t>
+          <t>La_Filiation_de_l'homme_et_la_sélection_liée_au_sexe</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Éditions françaises</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>La descendance de l'homme et la Sélection sexuelle, Traduction de J.-J. Moulinié (1872), disponible sur Gallica.
 La Descendance de l’homme et la sélection sexuelle, traduction de Edmond Barbier (1881)
